--- a/Nuevo Plan Cuentas/PLAN Sin Error.xlsx
+++ b/Nuevo Plan Cuentas/PLAN Sin Error.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisualS\ProyectoConjuntos\Nuevo Plan Cuentas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual\ProyectoConjuntos\Nuevo Plan Cuentas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CF7B47-0008-4305-81EE-0B81545429FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DCD1ED-5023-4F76-B823-F80E8DE6A488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>110201</v>
+        <v>110202</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
